--- a/biology/Médecine/Vaccin_diphtérique,_tétanique_et_poliomyélitique/Vaccin_diphtérique,_tétanique_et_poliomyélitique.xlsx
+++ b/biology/Médecine/Vaccin_diphtérique,_tétanique_et_poliomyélitique/Vaccin_diphtérique,_tétanique_et_poliomyélitique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vaccin_dipht%C3%A9rique,_t%C3%A9tanique_et_poliomy%C3%A9litique</t>
+          <t>Vaccin_diphtérique,_tétanique_et_poliomyélitique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le vaccin diphtérique, tétanique et poliomyélitique[1],[2] (abrégé vaccin DTP ou dTP) est un vaccin combiné trivalent dirigé contre la diphtérie, le tétanos et la poliomyélite. Sous la forme comprenant une dose réduite d'anatoxine diphtérique (dTP), il est fabriqué par Sanofi Pasteur et vendu sous le nom Revaxis[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vaccin diphtérique, tétanique et poliomyélitique, (abrégé vaccin DTP ou dTP) est un vaccin combiné trivalent dirigé contre la diphtérie, le tétanos et la poliomyélite. Sous la forme comprenant une dose réduite d'anatoxine diphtérique (dTP), il est fabriqué par Sanofi Pasteur et vendu sous le nom Revaxis.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vaccin_dipht%C3%A9rique,_t%C3%A9tanique_et_poliomy%C3%A9litique</t>
+          <t>Vaccin_diphtérique,_tétanique_et_poliomyélitique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Rappel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le vaccin DTP permet la prévention conjointe de la diphtérie[3], du tétanos[4] et de la poliomyélite[5].
-La diphtérie est une maladie infectieuse très contagieuse, due à une bactérie[6].
-Le tétanos est une maladie infectieuse souvent mortelle, notamment dans les pays en voie de développement. Une personne sur deux atteinte de tétanos guérit spontanément. En France, le tétanos touche moins de dix personnes par an[7],[8].
-La poliomyélite est une maladie infectieuse et très contagieuse. Selon l'OMS, une personne atteinte sur 200 sera paralysée à vie, et 359 cas ont été identifiés en 2014 dans le monde[9].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le vaccin DTP permet la prévention conjointe de la diphtérie, du tétanos et de la poliomyélite.
+La diphtérie est une maladie infectieuse très contagieuse, due à une bactérie.
+Le tétanos est une maladie infectieuse souvent mortelle, notamment dans les pays en voie de développement. Une personne sur deux atteinte de tétanos guérit spontanément. En France, le tétanos touche moins de dix personnes par an,.
+La poliomyélite est une maladie infectieuse et très contagieuse. Selon l'OMS, une personne atteinte sur 200 sera paralysée à vie, et 359 cas ont été identifiés en 2014 dans le monde.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vaccin_dipht%C3%A9rique,_t%C3%A9tanique_et_poliomy%C3%A9litique</t>
+          <t>Vaccin_diphtérique,_tétanique_et_poliomyélitique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2001, le DTPolio Pasteur est retiré de la vente[réf. nécessaire].
-En 2008, le DTPolio Mérieux Pasteur est retiré de la vente, Sanofi Pasteur propose en remplacement le vaccin Revavix[10].</t>
+En 2008, le DTPolio Mérieux Pasteur est retiré de la vente, Sanofi Pasteur propose en remplacement le vaccin Revavix.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vaccin_dipht%C3%A9rique,_t%C3%A9tanique_et_poliomy%C3%A9litique</t>
+          <t>Vaccin_diphtérique,_tétanique_et_poliomyélitique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Vaccins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Composition du vaccin Revaxis[11]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Composition du vaccin Revaxis
 Substances actives :
 Anatoxine diphtérique
 Anatoxine tétanique
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vaccin_dipht%C3%A9rique,_t%C3%A9tanique_et_poliomy%C3%A9litique</t>
+          <t>Vaccin_diphtérique,_tétanique_et_poliomyélitique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Obligation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, ce vaccin est obligatoire chez l'enfant[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, ce vaccin est obligatoire chez l'enfant.
 </t>
         </is>
       </c>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vaccin_dipht%C3%A9rique,_t%C3%A9tanique_et_poliomy%C3%A9litique</t>
+          <t>Vaccin_diphtérique,_tétanique_et_poliomyélitique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,9 +662,11 @@
           <t>Recommandations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, ce vaccin combiné est recommandé chez l'adulte en tant que rappel d'une vaccination antérieure, aux âges de 25, 45 et 65 ans, puis tous les 10 ans[13].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, ce vaccin combiné est recommandé chez l'adulte en tant que rappel d'une vaccination antérieure, aux âges de 25, 45 et 65 ans, puis tous les 10 ans.
 </t>
         </is>
       </c>
